--- a/Excel/镇魂街/神器计算.xlsx
+++ b/Excel/镇魂街/神器计算.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="598">
   <si>
     <t>sheet名</t>
   </si>
@@ -7159,6 +7159,80 @@
   <si>
     <t>行为</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic[1].md[3].lv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器1模组3等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic[2].md[3].lv</t>
+  </si>
+  <si>
+    <t>relic[2].md[4].lv</t>
+  </si>
+  <si>
+    <t>relic[2].md[5].lv</t>
+  </si>
+  <si>
+    <t>神器2模组3等级</t>
+  </si>
+  <si>
+    <t>神器2模组4等级</t>
+  </si>
+  <si>
+    <t>神器2模组5等级</t>
+  </si>
+  <si>
+    <t>relic[3].md[5].lv</t>
+  </si>
+  <si>
+    <t>relic[3].md[6].lv</t>
+  </si>
+  <si>
+    <t>神器3模组5等级</t>
+  </si>
+  <si>
+    <t>神器3模组6等级</t>
+  </si>
+  <si>
+    <t>relic[4].md[5].lv</t>
+  </si>
+  <si>
+    <t>relic[4].md[6].lv</t>
+  </si>
+  <si>
+    <t>神器4模组5等级</t>
+  </si>
+  <si>
+    <t>神器4模组6等级</t>
+  </si>
+  <si>
+    <t>神器6模组7等级</t>
+  </si>
+  <si>
+    <t>神器6模组8等级</t>
+  </si>
+  <si>
+    <t>relic[6].md[7].lv</t>
+  </si>
+  <si>
+    <t>relic[6].md[8].lv</t>
+  </si>
+  <si>
+    <t>relic[7].md[7].lv</t>
+  </si>
+  <si>
+    <t>relic[7].md[8].lv</t>
+  </si>
+  <si>
+    <t>神器7模组7等级</t>
+  </si>
+  <si>
+    <t>神器7模组8等级</t>
   </si>
 </sst>
 </file>
@@ -7910,21 +7984,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AZ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="25" customWidth="1"/>
+    <col min="4" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="25" customWidth="1"/>
+    <col min="8" max="10" width="5.625" customWidth="1"/>
+    <col min="11" max="13" width="5.625" style="25" customWidth="1"/>
+    <col min="14" max="18" width="5.625" customWidth="1"/>
+    <col min="19" max="20" width="5.625" style="25" customWidth="1"/>
+    <col min="21" max="25" width="5.625" customWidth="1"/>
+    <col min="26" max="27" width="5.625" style="25" customWidth="1"/>
+    <col min="28" max="41" width="5.625" customWidth="1"/>
+    <col min="42" max="43" width="5.625" style="25" customWidth="1"/>
+    <col min="44" max="52" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>568</v>
       </c>
@@ -7944,109 +8027,145 @@
         <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="AR1" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AY1" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>534</v>
       </c>
@@ -8069,16 +8188,16 @@
         <v>534</v>
       </c>
       <c r="H2" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>8</v>
-      </c>
       <c r="K2" s="25" t="s">
-        <v>8</v>
+        <v>534</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>534</v>
@@ -8087,28 +8206,28 @@
         <v>534</v>
       </c>
       <c r="N2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>8</v>
-      </c>
       <c r="R2" s="25" t="s">
-        <v>8</v>
+        <v>534</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>8</v>
+        <v>534</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>8</v>
+        <v>534</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>8</v>
+        <v>534</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>8</v>
@@ -8126,7 +8245,7 @@
         <v>8</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>534</v>
+        <v>8</v>
       </c>
       <c r="AB2" s="25" t="s">
         <v>8</v>
@@ -8135,13 +8254,13 @@
         <v>8</v>
       </c>
       <c r="AD2" s="25" t="s">
-        <v>534</v>
+        <v>8</v>
       </c>
       <c r="AE2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AF2" s="25" t="s">
-        <v>534</v>
+        <v>8</v>
       </c>
       <c r="AG2" s="25" t="s">
         <v>8</v>
@@ -8150,25 +8269,61 @@
         <v>8</v>
       </c>
       <c r="AI2" s="25" t="s">
-        <v>8</v>
+        <v>534</v>
       </c>
       <c r="AJ2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="AK2" s="25" t="s">
-        <v>534</v>
+        <v>8</v>
       </c>
       <c r="AL2" s="25" t="s">
         <v>534</v>
       </c>
       <c r="AM2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AO2" s="25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+      <c r="AP2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU2" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="AV2" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="AW2" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="AX2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ2" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -8188,106 +8343,142 @@
         <v>536</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/神器计算.xlsx
+++ b/Excel/镇魂街/神器计算.xlsx
@@ -7986,19 +7986,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.625" style="25" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="25" customWidth="1"/>
-    <col min="4" max="6" width="5.625" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="25" customWidth="1"/>
-    <col min="8" max="10" width="5.625" customWidth="1"/>
-    <col min="11" max="13" width="5.625" style="25" customWidth="1"/>
-    <col min="14" max="18" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="25" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="25" customWidth="1"/>
+    <col min="13" max="13" width="19.125" style="25" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="15" max="18" width="5.625" customWidth="1"/>
     <col min="19" max="20" width="5.625" style="25" customWidth="1"/>
     <col min="21" max="25" width="5.625" customWidth="1"/>
     <col min="26" max="27" width="5.625" style="25" customWidth="1"/>
@@ -8323,7 +8330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
